--- a/LeetcodeCodings.xlsx
+++ b/LeetcodeCodings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\LeetCodeSolutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145A4775-C299-4ABB-A0B6-8DD70CE27A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA2B1F5-1BE2-48D6-9E32-0FB3815149DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{188325C8-5C1A-4C96-BC64-2F32985203AE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -87,13 +87,97 @@
     <t>https://leetcode.com/problems/two-sum/</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/roman-to-integer/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/palindrome-number/</t>
-  </si>
-  <si>
-    <t>Roman to Integer</t>
+    <t>https://leetcode.com/problems/palindrome-number/description/</t>
+  </si>
+  <si>
+    <t>Roman to Intege</t>
+  </si>
+  <si>
+    <t>valid-parentheses</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>ValidParentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-parentheses/</t>
+  </si>
+  <si>
+    <t>Length of Last Word</t>
+  </si>
+  <si>
+    <t>lengthOfLastWord</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/length-of-last-word/</t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>singleNumber</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/single-number/</t>
+  </si>
+  <si>
+    <t>Add Digits</t>
+  </si>
+  <si>
+    <t>Math Expression (1+ (n-1)%9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int addDigits(int num) {</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-digits</t>
+  </si>
+  <si>
+    <t>Fizz Buzz</t>
+  </si>
+  <si>
+    <t>fizzBuzz</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fizz-buzz/</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>missingNumber</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/missing-number/</t>
+  </si>
+  <si>
+    <t>To Lower Case</t>
+  </si>
+  <si>
+    <t>toLowerCase</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/to-lower-case/</t>
+  </si>
+  <si>
+    <t>Reverse String</t>
+  </si>
+  <si>
+    <t>reverseString</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-string/</t>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>plusOne</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/plus-one/</t>
   </si>
 </sst>
 </file>
@@ -131,12 +215,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,13 +242,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -474,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4BAD71-CCA9-433B-A548-BB556F12BED6}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -486,11 +579,13 @@
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -509,154 +604,530 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="8:8">
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="8:8">
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="8:8">
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="8:8">
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="8:8">
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="8:8">
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="8:8">
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="8:8">
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="8:8">
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="8:8">
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="8:8">
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="8:8">
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="8:8">
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="8:8">
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="8:8">
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="8:8">
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="8:8">
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="8:8">
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="8:8">
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="8:8">
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="8:8">
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="8:8">
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="8:8">
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="8:8">
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="8:8">
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="8:8">
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="8:8">
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="8:8">
+      <c r="H78" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{65C2A77A-FE95-49ED-84B5-5B67997D4CB1}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{A2019DD5-D79E-47FC-A8F3-9E3F79A90E33}"/>
-    <hyperlink ref="H3" r:id="rId3" xr:uid="{BCE8DB16-FFE3-46B1-94F7-AF8816D3BDCE}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{E47F56D7-211B-46CA-8BAD-FA2E6EC98A15}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{A6F25EFF-01F3-4E3D-BC34-AA058D592675}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{4E0623E8-8273-42A6-BBC4-EE8AA635F0B9}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{A7A562BA-7B38-4CBF-BB2D-86BAAEE7F02D}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{E61956B6-5F9C-4700-832F-88F38435E422}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{AB99FE8E-F86D-4D9D-940B-F67235D2E46D}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{58F5148B-8145-4591-81E9-0126AC98833D}"/>
+    <hyperlink ref="G11" r:id="rId8" xr:uid="{FBE827AD-EFC1-49A0-876B-FCB5A8BBEB93}"/>
+    <hyperlink ref="G12" r:id="rId9" xr:uid="{797205F9-51A9-49B3-AD99-B56793E8C492}"/>
+    <hyperlink ref="G13" r:id="rId10" xr:uid="{3823EDB0-8B30-4387-B0CA-A05F3DD0F502}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
